--- a/Texts/Город Сокровищ/Все персонажи/Свеллоу.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Свеллоу.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -262,6 +262,54 @@
   </si>
   <si>
     <t xml:space="preserve"> Ä-äà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I heard that the different kinds\nof [CS:I]Prize Tickets[CR] have something\nto do with your Explorer Rank…</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1204.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Говорят, что разные типы\n[CS:I]Призовых Билетов[CR] как-то связаны с Рангом\nИсследователя...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãïâïñÿó, œóï ñàèîúå óéðú\n[CS:I]Ðñéèïâúö Áéìåóïâ[CR] ëàë-óï òâÿèàîú ò Ñàîãïí\nÉòòìåäïâàóåìÿ…</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1316.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Grovyle[CR], huh...?[K] Can\'t say I\'ve\nheard of him, to be honest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Гровайл[CR], да?..[K] Не могу сказать,\nчто я о нём что либо слышал.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Ãñïâàêì[CR], äà?..[K] Îå íïãô òëàèàóû,\nœóï ÿ ï îæí œóï ìéáï òìúšàì.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRIPT/T01P02A/um1402.ssb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Doing nothing but waiting is\nfrustrating, but...[K]it\'s the great [CS:N]Dusknoir[CR]\'s call.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to trust him to do it.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1608.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Печально, что кроме ожидания\nмы ничего не можем сделать, но...[K] Таков\nзамысел великого [CS:N]Даскнуара[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы доверимся его словам.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðåœàìûîï, œóï ëñïíå ïçéäàîéÿ\níú îéœåãï îå íïçåí òäåìàóû, îï...[K] Óàëïâ\nèàíúòåì âåìéëïãï [CS:N]Äàòëîôàñà[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú äïâåñéíòÿ åãï òìïâàí.</t>
   </si>
 </sst>
 </file>
@@ -292,7 +340,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -333,11 +381,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -358,6 +417,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -640,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,17 +1088,92 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="4">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6">
         <v>322</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="7" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="8">
+        <v>274</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="4">
+        <v>255</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="4">
+        <v>233</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>236</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Свеллоу.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Свеллоу.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="104">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -310,6 +310,27 @@
   </si>
   <si>
     <t xml:space="preserve"> Íú äïâåñéíòÿ åãï òìïâàí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Go for it, Team [team:]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Take the Time Gears back to\n[CS:P]Temporal Tower[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um2403.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óïìûëï âðåñæä, Ëïíàîäà\n[team:]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âåñîéóå Šåòóåñîé Âñåíåîé â\n[CS:P]Óåíðïñàìûîôý Áàšîý[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Только вперёд, Команда\n[team:]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Верните Шестерни Времени в\n[CS:P]Темпоральную Башню[CR]!</t>
   </si>
 </sst>
 </file>
@@ -705,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1163,17 +1184,49 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="4">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6">
         <v>236</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="7" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="4">
+        <v>211</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>214</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Свеллоу.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Свеллоу.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="141">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -331,6 +331,117 @@
   </si>
   <si>
     <t xml:space="preserve"> Верните Шестерни Времени в\n[CS:P]Темпоральную Башню[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um2503.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Isn\'t it great? The world\'s back\nto peace and all.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us0110.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When things are this mellow…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Don\'t you find yourself\ngetting hungry?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wh-what?! H-hungry?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eeep! Y-y-yeesh!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So let me ask you a question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Try to guess...[K]what I really\nwant to eat right now!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Y-y-yeesh!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Wurmple[CR].[K] Can you guess what I\nmost want to eat right now?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eeeep!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Разве это не здорово? В мире\nснова спокойно.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Когда в округе царит мир...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Разве у тебя не разыгрывается\nаппетит?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Чт-что?! Ап-аппетит?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Иии! Д-д-да!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тогда задам один вопрос.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Попробуй угадать...[K] Что я сейчас\nхочу съесть!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Д-а-ааааа!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Вурмпл[CR].[K] Можешь угадать, что я\nсейчас очень сильно хочу съесть?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Аааайииии!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ñàèâå üóï îå èäïñïâï? Â íéñå\nòîïâà òðïëïêîï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïãäà â ïëñôãå øàñéó íéñ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ñàèâå ô óåáÿ îå ñàèúãñúâàåóòÿ\nàððåóéó?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œó-œóï?! Àð-àððåóéó?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ééé! Ä-ä-äà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óïãäà èàäàí ïäéî âïðñïò.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïðñïáôê ôãàäàóû...[K] Œóï ÿ òåêœàò\nöïœô òùåòóû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ä-à-ààààà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Âôñíðì[CR].[K] Íïçåšû ôãàäàóû, œóï ÿ\nòåêœàò ïœåîû òéìûîï öïœô òùåòóû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ààààêéééé!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us3102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What? What?\nDid something happen?</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us3119.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что? Чего?\nЧто-то случилось?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï? Œåãï?\nŒóï-óï òìôœéìïòû?</t>
   </si>
 </sst>
 </file>
@@ -726,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1215,18 +1326,199 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="4">
+    <row r="33" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="6">
         <v>214</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="7" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="4">
+        <v>110</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="4">
+        <v>113</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
+        <v>116</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
+        <v>119</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
+        <v>132</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
+        <v>135</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <v>141</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
+        <v>144</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="4">
+        <v>156</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>162</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6">
+        <v>171</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="4">
+        <v>190</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Свеллоу.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Свеллоу.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="168">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -442,6 +442,87 @@
   </si>
   <si>
     <t xml:space="preserve"> Œóï? Œåãï?\nŒóï-óï òìôœéìïòû?</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us0204.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D01P11A/us0403.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What...[K]what are you suggesting?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Me? Eat you? Are you kidding?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Wurmple[CR]![K] You\'re my\ntrusted partner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'re my one...[K]and only partner.\nThere\'s no replacing you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You and me, we\'re going to keep\non exploring together like we\'ve always done.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hm?[K] Why are you crying?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что...[K] Что ты такое говоришь?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я? Съем тебя? Это шутка такая?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Вурмпл[CR]![K] Ты мой верный спутник.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ты и я, мы всегда будем вместе\nходить на вылазки, как и прежде.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хм?[K] Почему ты плачешь?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï...[K] Œóï óú óàëïå ãïâïñéšû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ? Òùåí óåáÿ? Üóï šôóëà óàëàÿ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Âôñíðì[CR]![K] Óú íïê âåñîúê òðôóîéë.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óú é ÿ, íú âòåãäà áôäåí âíåòóå\nöïäéóû îà âúìàèëé, ëàë é ðñåçäå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öí?[K] Ðïœåíô óú ðìàœåšû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ты мой единственный...[K]\nИ неповторимый спутник.\nТебе нет замены!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óú íïê åäéîòóâåîîúê...[K]\nÉ îåðïâóïñéíúê òðôóîéë.\nÓåáå îåó èàíåîú!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us2213.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> My partner was terrified of\nme, and I didn\'t know it…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> As a leader...[K]I must be a failure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мой спутник был от меня в ужасе,\nа я даже не знал об этом...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как лидер...[K] Я, наверное, ужасен.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íïê òðôóîéë áúì ïó íåîÿ â ôçàòå,\nà ÿ äàçå îå èîàì ïá üóïí...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë ìéäåñ...[K] Ÿ, îàâåñîïå, ôçàòåî.</t>
   </si>
 </sst>
 </file>
@@ -837,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1377,7 +1458,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="B36" s="4">
         <v>116</v>
       </c>
@@ -1505,20 +1589,139 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="8">
         <v>190</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="9" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="4">
+        <v>53</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="4">
+        <v>56</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="4">
+        <v>59</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B49" s="4">
+        <v>62</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B50" s="4">
+        <v>65</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6">
+        <v>86</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="4">
+        <v>18</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="4">
+        <v>21</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
